--- a/biology/Botanique/Conseil_international_des_céréales/Conseil_international_des_céréales.xlsx
+++ b/biology/Botanique/Conseil_international_des_céréales/Conseil_international_des_céréales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseil_international_des_c%C3%A9r%C3%A9ales</t>
+          <t>Conseil_international_des_céréales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conseil international des céréales (CIC) est une organisation internationale fondée le 23 mars 1949 sous le nom de Conseil international du blé (CIB) à l'initiative du gouvernement américain dans le but d'assurer une distribution égalitaire de blé aux pays en état d'urgence.
 Cet organisme faisait partie du Point IV annoncé par le président des États-Unis, Harry S. Truman, le 20 janvier 1949 pour améliorer la situation économique des pays pauvres. Parmi les membres du CIB figuraient la république d'Irlande (depuis 1951), Israël (depuis  1949), l'Allemagne de l'Ouest (depuis 1951) et le Japon (depuis 1951). En 1995, l'organisation fut renommée «  Conseil international des céréales ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conseil_international_des_c%C3%A9r%C3%A9ales</t>
+          <t>Conseil_international_des_céréales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’origine du Conseil international des céréales remonte à la crise des années 1930.
 Cette période fut marquée par une baisse généralisée des cours du blé. De nombreux producteurs connurent la misère. Le commerce international du blé était en général complètement libre de droit de douane.
